--- a/biology/Médecine/Philibert_Borie/Philibert_Borie.xlsx
+++ b/biology/Médecine/Philibert_Borie/Philibert_Borie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Philibert Borie, né en 1759 et décédé à Saint-Cloud le 31 juillet 1832[1],[2],[3], est un médecin français. Il fut maire de Paris par intérim du 7 au 13 juillet 1792, lors de la suspension de Pétion.
-Professeur de physiologie, puis de pathologie à la Faculté de Médecine, électeur de la section de la Halle-aux-Blés, notable en 1790, il fut élu au sein de la Commune de Paris et devint officier municipal en 1791 et 1792[4].
-Il était également médecin à l'Hôtel-Dieu de Paris[5],[6]
+Philibert Borie, né en 1759 et décédé à Saint-Cloud le 31 juillet 1832 est un médecin français. Il fut maire de Paris par intérim du 7 au 13 juillet 1792, lors de la suspension de Pétion.
+Professeur de physiologie, puis de pathologie à la Faculté de Médecine, électeur de la section de la Halle-aux-Blés, notable en 1790, il fut élu au sein de la Commune de Paris et devint officier municipal en 1791 et 1792.
+Il était également médecin à l'Hôtel-Dieu de Paris,
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>An causa partus ex uteri fibrarum explicatione non ultra producenda pendeat ? (Praes. Antonio Petro Demours. Cand. Philiberto Borie), Paris, 1785, In-4 °, 4 pages.
 An choreae nocturnae sanitati nocivae ? (Praes. Ludovico Gilberto Boyrot de Joncheres. Cand. Philiberto Borie), Paris, 1785, In-4 °, 4 pages.
